--- a/data/Enemies.xlsx
+++ b/data/Enemies.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="125">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="127">
   <si>
     <t>テスト用雑魚</t>
   </si>
@@ -128,6 +128,9 @@
     <t>シィナ</t>
   </si>
   <si>
+    <t>Sina</t>
+  </si>
+  <si>
     <t>ローズ</t>
   </si>
   <si>
@@ -222,6 +225,9 @@
   </si>
   <si>
     <t>リリー</t>
+  </si>
+  <si>
+    <t>Rewrite     -   Lily</t>
   </si>
   <si>
     <t>Lily</t>
@@ -728,7 +734,7 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:C118"/>
+  <dimension ref="A1:D118"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
       <selection activeCell="A1" sqref="A1"/>
@@ -736,32 +742,32 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:4">
       <c r="A1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:3">
+    <row r="2" spans="1:4">
       <c r="A2" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:3">
+    <row r="3" spans="1:4">
       <c r="A3" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:3">
+    <row r="4" spans="1:4">
       <c r="A4" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:3">
+    <row r="5" spans="1:4">
       <c r="A5" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:3">
+    <row r="6" spans="1:4">
       <c r="A6" t="s">
         <v>5</v>
       </c>
@@ -769,22 +775,22 @@
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:3">
+    <row r="7" spans="1:4">
       <c r="A7" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="8" spans="1:3">
+    <row r="8" spans="1:4">
       <c r="A8" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="9" spans="1:3">
+    <row r="9" spans="1:4">
       <c r="A9" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="10" spans="1:3">
+    <row r="10" spans="1:4">
       <c r="A10" t="s">
         <v>9</v>
       </c>
@@ -792,565 +798,571 @@
         <v>9</v>
       </c>
     </row>
-    <row r="11" spans="1:3">
+    <row r="11" spans="1:4">
       <c r="A11" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="12" spans="1:3">
+    <row r="12" spans="1:4">
       <c r="A12" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="13" spans="1:3">
+    <row r="13" spans="1:4">
       <c r="A13" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="14" spans="1:3">
+    <row r="14" spans="1:4">
       <c r="A14" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="15" spans="1:3">
+    <row r="15" spans="1:4">
       <c r="A15" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="16" spans="1:3">
+    <row r="16" spans="1:4">
       <c r="A16" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="17" spans="1:3">
+    <row r="17" spans="1:4">
       <c r="A17" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="18" spans="1:3">
+    <row r="18" spans="1:4">
       <c r="A18" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="19" spans="1:3">
+    <row r="19" spans="1:4">
       <c r="A19" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="20" spans="1:3">
+    <row r="20" spans="1:4">
       <c r="A20" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="21" spans="1:3">
+    <row r="21" spans="1:4">
       <c r="A21" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="22" spans="1:3">
+    <row r="22" spans="1:4">
       <c r="A22" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="23" spans="1:3">
+    <row r="23" spans="1:4">
       <c r="A23" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="24" spans="1:3">
+    <row r="24" spans="1:4">
       <c r="A24" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="25" spans="1:3">
+    <row r="25" spans="1:4">
       <c r="A25" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="26" spans="1:3">
+    <row r="26" spans="1:4">
       <c r="A26" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="27" spans="1:3">
+    <row r="27" spans="1:4">
       <c r="A27" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="28" spans="1:3">
+    <row r="28" spans="1:4">
       <c r="A28" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="29" spans="1:3">
+    <row r="29" spans="1:4">
       <c r="A29" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="30" spans="1:3">
+    <row r="30" spans="1:4">
       <c r="A30" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="31" spans="1:3">
+    <row r="31" spans="1:4">
       <c r="A31" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="32" spans="1:3">
+    <row r="32" spans="1:4">
       <c r="A32" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="33" spans="1:3">
+    <row r="33" spans="1:4">
       <c r="A33" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="34" spans="1:3">
+    <row r="34" spans="1:4">
       <c r="A34" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="35" spans="1:3">
+    <row r="35" spans="1:4">
       <c r="A35" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="36" spans="1:3">
+    <row r="36" spans="1:4">
       <c r="A36" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="37" spans="1:3">
+    <row r="37" spans="1:4">
       <c r="A37" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="38" spans="1:3">
+      <c r="C37" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4">
       <c r="A38" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="39" spans="1:3">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4">
       <c r="A39" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="40" spans="1:3">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4">
       <c r="A40" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="41" spans="1:3">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4">
       <c r="A41" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="42" spans="1:3">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4">
       <c r="A42" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="43" spans="1:3">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4">
       <c r="A43" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="44" spans="1:3">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4">
       <c r="A44" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="45" spans="1:3">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4">
       <c r="A45" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="46" spans="1:3">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4">
       <c r="A46" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="47" spans="1:3">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4">
       <c r="A47" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="48" spans="1:3">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4">
       <c r="A48" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="49" spans="1:3">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4">
       <c r="A49" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="50" spans="1:3">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4">
       <c r="A50" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="51" spans="1:3">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4">
       <c r="A51" t="s">
-        <v>50</v>
-      </c>
-      <c r="C51" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="52" spans="1:3">
+      <c r="D51" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4">
       <c r="A52" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="53" spans="1:3">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4">
       <c r="A53" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="54" spans="1:3">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4">
       <c r="A54" t="s">
-        <v>54</v>
-      </c>
-      <c r="C54" t="s">
         <v>55</v>
       </c>
-    </row>
-    <row r="55" spans="1:3">
+      <c r="D54" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4">
       <c r="A55" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="56" spans="1:3">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4">
       <c r="A56" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="57" spans="1:3">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4">
       <c r="A57" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="58" spans="1:3">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4">
       <c r="A58" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="59" spans="1:3">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4">
       <c r="A59" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="60" spans="1:3">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4">
       <c r="A60" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="61" spans="1:3">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4">
       <c r="A61" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="62" spans="1:3">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4">
       <c r="A62" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="63" spans="1:3">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4">
       <c r="A63" t="s">
-        <v>64</v>
-      </c>
-      <c r="C63" t="s">
         <v>65</v>
       </c>
-    </row>
-    <row r="64" spans="1:3">
+      <c r="D63" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4">
       <c r="A64" t="s">
-        <v>66</v>
-      </c>
-      <c r="C64" t="s">
         <v>67</v>
       </c>
-    </row>
-    <row r="65" spans="1:3">
+      <c r="D64" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4">
       <c r="A65" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="C65" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="66" spans="1:3">
+        <v>70</v>
+      </c>
+      <c r="D65" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4">
       <c r="A66" t="s">
-        <v>70</v>
-      </c>
-      <c r="C66" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="67" spans="1:3">
+        <v>72</v>
+      </c>
+      <c r="D66" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4">
       <c r="A67" t="s">
-        <v>72</v>
-      </c>
-      <c r="C67" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="68" spans="1:3">
+        <v>74</v>
+      </c>
+      <c r="D67" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4">
       <c r="A68" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="69" spans="1:3">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="69" spans="1:4">
       <c r="A69" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="70" spans="1:3">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="70" spans="1:4">
       <c r="A70" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="71" spans="1:3">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="71" spans="1:4">
       <c r="A71" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="72" spans="1:3">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="72" spans="1:4">
       <c r="A72" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="73" spans="1:3">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="73" spans="1:4">
       <c r="A73" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="74" spans="1:3">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="74" spans="1:4">
       <c r="A74" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="75" spans="1:3">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="75" spans="1:4">
       <c r="A75" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="76" spans="1:3">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="76" spans="1:4">
       <c r="A76" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="77" spans="1:3">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="77" spans="1:4">
       <c r="A77" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="78" spans="1:3">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="78" spans="1:4">
       <c r="A78" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="79" spans="1:3">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="79" spans="1:4">
       <c r="A79" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="80" spans="1:3">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="80" spans="1:4">
       <c r="A80" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="81" spans="1:3">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="81" spans="1:4">
       <c r="A81" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="82" spans="1:3">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="82" spans="1:4">
       <c r="A82" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="83" spans="1:3">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="83" spans="1:4">
       <c r="A83" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="84" spans="1:3">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="84" spans="1:4">
       <c r="A84" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="85" spans="1:3">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="85" spans="1:4">
       <c r="A85" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="86" spans="1:3">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="86" spans="1:4">
       <c r="A86" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="87" spans="1:3">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="87" spans="1:4">
       <c r="A87" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="88" spans="1:3">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="88" spans="1:4">
       <c r="A88" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="89" spans="1:3">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="89" spans="1:4">
       <c r="A89" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="90" spans="1:3">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="90" spans="1:4">
       <c r="A90" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="91" spans="1:3">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="91" spans="1:4">
       <c r="A91" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="92" spans="1:3">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="92" spans="1:4">
       <c r="A92" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="93" spans="1:3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="93" spans="1:4">
       <c r="A93" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="94" spans="1:3">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="94" spans="1:4">
       <c r="A94" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="95" spans="1:3">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="95" spans="1:4">
       <c r="A95" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="96" spans="1:3">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="96" spans="1:4">
       <c r="A96" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="97" spans="1:3">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="97" spans="1:4">
       <c r="A97" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="98" spans="1:3">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="98" spans="1:4">
       <c r="A98" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="99" spans="1:3">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="99" spans="1:4">
       <c r="A99" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="100" spans="1:3">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="100" spans="1:4">
       <c r="A100" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="101" spans="1:3">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="101" spans="1:4">
       <c r="A101" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="102" spans="1:3">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="102" spans="1:4">
       <c r="A102" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="103" spans="1:3">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="103" spans="1:4">
       <c r="A103" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="104" spans="1:3">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="104" spans="1:4">
       <c r="A104" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="105" spans="1:3">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="105" spans="1:4">
       <c r="A105" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="106" spans="1:3">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="106" spans="1:4">
       <c r="A106" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="107" spans="1:3">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="107" spans="1:4">
       <c r="A107" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="108" spans="1:3">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="108" spans="1:4">
       <c r="A108" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="109" spans="1:3">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="109" spans="1:4">
       <c r="A109" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="110" spans="1:3">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="110" spans="1:4">
       <c r="A110" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="111" spans="1:3">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="111" spans="1:4">
       <c r="A111" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="112" spans="1:3">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="112" spans="1:4">
       <c r="A112" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="113" spans="1:3">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="113" spans="1:4">
       <c r="A113" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="114" spans="1:3">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="114" spans="1:4">
       <c r="A114" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="115" spans="1:3">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="115" spans="1:4">
       <c r="A115" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="116" spans="1:3">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="116" spans="1:4">
       <c r="A116" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="117" spans="1:3">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="117" spans="1:4">
       <c r="A117" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="118" spans="1:3">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="118" spans="1:4">
       <c r="A118" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
     </row>
   </sheetData>

--- a/data/Enemies.xlsx
+++ b/data/Enemies.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="127">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="128">
   <si>
     <t>テスト用雑魚</t>
   </si>
@@ -384,6 +384,9 @@
   </si>
   <si>
     <t>木材</t>
+  </si>
+  <si>
+    <t>Wood</t>
   </si>
   <si>
     <t>玄関扉</t>
@@ -1344,25 +1347,28 @@
       <c r="A114" t="s">
         <v>122</v>
       </c>
+      <c r="C114" t="s">
+        <v>123</v>
+      </c>
     </row>
     <row r="115" spans="1:4">
       <c r="A115" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
     </row>
     <row r="116" spans="1:4">
       <c r="A116" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
     </row>
     <row r="117" spans="1:4">
       <c r="A117" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
     </row>
     <row r="118" spans="1:4">
       <c r="A118" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
     </row>
   </sheetData>

--- a/data/Enemies.xlsx
+++ b/data/Enemies.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="128">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="127">
   <si>
     <t>テスト用雑魚</t>
   </si>
@@ -128,7 +128,7 @@
     <t>シィナ</t>
   </si>
   <si>
-    <t>Sina</t>
+    <t>Shina</t>
   </si>
   <si>
     <t>ローズ</t>
@@ -225,9 +225,6 @@
   </si>
   <si>
     <t>リリー</t>
-  </si>
-  <si>
-    <t>Rewrite     -   Lily</t>
   </si>
   <si>
     <t>Lily</t>
@@ -1094,281 +1091,281 @@
         <v>70</v>
       </c>
       <c r="D65" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="66" spans="1:4">
       <c r="A66" t="s">
+        <v>71</v>
+      </c>
+      <c r="D66" t="s">
         <v>72</v>
-      </c>
-      <c r="D66" t="s">
-        <v>73</v>
       </c>
     </row>
     <row r="67" spans="1:4">
       <c r="A67" t="s">
+        <v>73</v>
+      </c>
+      <c r="D67" t="s">
         <v>74</v>
-      </c>
-      <c r="D67" t="s">
-        <v>75</v>
       </c>
     </row>
     <row r="68" spans="1:4">
       <c r="A68" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="69" spans="1:4">
       <c r="A69" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="70" spans="1:4">
       <c r="A70" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="71" spans="1:4">
       <c r="A71" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="72" spans="1:4">
       <c r="A72" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="73" spans="1:4">
       <c r="A73" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="74" spans="1:4">
       <c r="A74" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="75" spans="1:4">
       <c r="A75" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="76" spans="1:4">
       <c r="A76" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="77" spans="1:4">
       <c r="A77" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="78" spans="1:4">
       <c r="A78" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="79" spans="1:4">
       <c r="A79" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="80" spans="1:4">
       <c r="A80" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="81" spans="1:4">
       <c r="A81" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="82" spans="1:4">
       <c r="A82" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="83" spans="1:4">
       <c r="A83" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="84" spans="1:4">
       <c r="A84" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="85" spans="1:4">
       <c r="A85" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="86" spans="1:4">
       <c r="A86" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="87" spans="1:4">
       <c r="A87" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="88" spans="1:4">
       <c r="A88" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="89" spans="1:4">
       <c r="A89" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="90" spans="1:4">
       <c r="A90" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="91" spans="1:4">
       <c r="A91" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="92" spans="1:4">
       <c r="A92" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="93" spans="1:4">
       <c r="A93" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="94" spans="1:4">
       <c r="A94" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="95" spans="1:4">
       <c r="A95" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="96" spans="1:4">
       <c r="A96" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="97" spans="1:4">
       <c r="A97" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
     </row>
     <row r="98" spans="1:4">
       <c r="A98" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="99" spans="1:4">
       <c r="A99" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="100" spans="1:4">
       <c r="A100" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="101" spans="1:4">
       <c r="A101" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="102" spans="1:4">
       <c r="A102" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="103" spans="1:4">
       <c r="A103" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="104" spans="1:4">
       <c r="A104" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
     </row>
     <row r="105" spans="1:4">
       <c r="A105" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
     </row>
     <row r="106" spans="1:4">
       <c r="A106" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
     </row>
     <row r="107" spans="1:4">
       <c r="A107" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row r="108" spans="1:4">
       <c r="A108" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="109" spans="1:4">
       <c r="A109" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row r="110" spans="1:4">
       <c r="A110" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="111" spans="1:4">
       <c r="A111" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="112" spans="1:4">
       <c r="A112" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="113" spans="1:4">
       <c r="A113" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
     <row r="114" spans="1:4">
       <c r="A114" t="s">
+        <v>121</v>
+      </c>
+      <c r="C114" t="s">
         <v>122</v>
-      </c>
-      <c r="C114" t="s">
-        <v>123</v>
       </c>
     </row>
     <row r="115" spans="1:4">
       <c r="A115" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row r="116" spans="1:4">
       <c r="A116" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
     </row>
     <row r="117" spans="1:4">
       <c r="A117" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="118" spans="1:4">
       <c r="A118" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
   </sheetData>

--- a/data/Enemies.xlsx
+++ b/data/Enemies.xlsx
@@ -935,6 +935,9 @@
       <c r="C37" t="s">
         <v>37</v>
       </c>
+      <c r="D37" t="s">
+        <v>37</v>
+      </c>
     </row>
     <row r="38" spans="1:4">
       <c r="A38" t="s">

--- a/data/Enemies.xlsx
+++ b/data/Enemies.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="127">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="131">
   <si>
     <t>テスト用雑魚</t>
   </si>
@@ -239,7 +239,7 @@
     <t>ロメリア</t>
   </si>
   <si>
-    <t>Romeria</t>
+    <t>Meria</t>
   </si>
   <si>
     <t>1回目</t>
@@ -260,6 +260,9 @@
     <t>オーク</t>
   </si>
   <si>
+    <t>Orc</t>
+  </si>
+  <si>
     <t>オオコウモリ</t>
   </si>
   <si>
@@ -272,9 +275,15 @@
     <t>オーガ</t>
   </si>
   <si>
+    <t>Ogre</t>
+  </si>
+  <si>
     <t>スケルトン</t>
   </si>
   <si>
+    <t>Skeleton</t>
+  </si>
+  <si>
     <t>スポア</t>
   </si>
   <si>
@@ -288,6 +297,9 @@
   </si>
   <si>
     <t>ビッグベア</t>
+  </si>
+  <si>
+    <t>Big Bear</t>
   </si>
   <si>
     <t>島喰い</t>
@@ -1142,233 +1154,371 @@
       <c r="A73" t="s">
         <v>80</v>
       </c>
+      <c r="D73" t="s">
+        <v>81</v>
+      </c>
     </row>
     <row r="74" spans="1:4">
       <c r="A74" t="s">
-        <v>81</v>
+        <v>82</v>
+      </c>
+      <c r="D74" t="s">
+        <v>82</v>
       </c>
     </row>
     <row r="75" spans="1:4">
       <c r="A75" t="s">
-        <v>82</v>
+        <v>83</v>
+      </c>
+      <c r="D75" t="s">
+        <v>83</v>
       </c>
     </row>
     <row r="76" spans="1:4">
       <c r="A76" t="s">
-        <v>83</v>
+        <v>84</v>
+      </c>
+      <c r="D76" t="s">
+        <v>84</v>
       </c>
     </row>
     <row r="77" spans="1:4">
       <c r="A77" t="s">
-        <v>84</v>
+        <v>85</v>
+      </c>
+      <c r="D77" t="s">
+        <v>86</v>
       </c>
     </row>
     <row r="78" spans="1:4">
       <c r="A78" t="s">
-        <v>85</v>
+        <v>87</v>
+      </c>
+      <c r="D78" t="s">
+        <v>88</v>
       </c>
     </row>
     <row r="79" spans="1:4">
       <c r="A79" t="s">
-        <v>86</v>
+        <v>89</v>
+      </c>
+      <c r="D79" t="s">
+        <v>89</v>
       </c>
     </row>
     <row r="80" spans="1:4">
       <c r="A80" t="s">
-        <v>87</v>
+        <v>90</v>
+      </c>
+      <c r="D80" t="s">
+        <v>90</v>
       </c>
     </row>
     <row r="81" spans="1:4">
       <c r="A81" t="s">
-        <v>88</v>
+        <v>91</v>
+      </c>
+      <c r="D81" t="s">
+        <v>91</v>
       </c>
     </row>
     <row r="82" spans="1:4">
       <c r="A82" t="s">
-        <v>89</v>
+        <v>92</v>
+      </c>
+      <c r="D82" t="s">
+        <v>92</v>
       </c>
     </row>
     <row r="83" spans="1:4">
       <c r="A83" t="s">
-        <v>90</v>
+        <v>93</v>
+      </c>
+      <c r="D83" t="s">
+        <v>94</v>
       </c>
     </row>
     <row r="84" spans="1:4">
       <c r="A84" t="s">
-        <v>91</v>
+        <v>95</v>
+      </c>
+      <c r="D84" t="s">
+        <v>95</v>
       </c>
     </row>
     <row r="85" spans="1:4">
       <c r="A85" t="s">
-        <v>92</v>
+        <v>96</v>
+      </c>
+      <c r="D85" t="s">
+        <v>96</v>
       </c>
     </row>
     <row r="86" spans="1:4">
       <c r="A86" t="s">
-        <v>93</v>
+        <v>97</v>
+      </c>
+      <c r="D86" t="s">
+        <v>97</v>
       </c>
     </row>
     <row r="87" spans="1:4">
       <c r="A87" t="s">
-        <v>94</v>
+        <v>98</v>
+      </c>
+      <c r="D87" t="s">
+        <v>98</v>
       </c>
     </row>
     <row r="88" spans="1:4">
       <c r="A88" t="s">
-        <v>95</v>
+        <v>99</v>
+      </c>
+      <c r="D88" t="s">
+        <v>99</v>
       </c>
     </row>
     <row r="89" spans="1:4">
       <c r="A89" t="s">
-        <v>96</v>
+        <v>100</v>
+      </c>
+      <c r="D89" t="s">
+        <v>100</v>
       </c>
     </row>
     <row r="90" spans="1:4">
       <c r="A90" t="s">
-        <v>97</v>
+        <v>101</v>
+      </c>
+      <c r="D90" t="s">
+        <v>101</v>
       </c>
     </row>
     <row r="91" spans="1:4">
       <c r="A91" t="s">
-        <v>98</v>
+        <v>102</v>
+      </c>
+      <c r="D91" t="s">
+        <v>102</v>
       </c>
     </row>
     <row r="92" spans="1:4">
       <c r="A92" t="s">
-        <v>99</v>
+        <v>103</v>
+      </c>
+      <c r="D92" t="s">
+        <v>103</v>
       </c>
     </row>
     <row r="93" spans="1:4">
       <c r="A93" t="s">
-        <v>100</v>
+        <v>104</v>
+      </c>
+      <c r="D93" t="s">
+        <v>104</v>
       </c>
     </row>
     <row r="94" spans="1:4">
       <c r="A94" t="s">
-        <v>101</v>
+        <v>105</v>
+      </c>
+      <c r="D94" t="s">
+        <v>105</v>
       </c>
     </row>
     <row r="95" spans="1:4">
       <c r="A95" t="s">
-        <v>102</v>
+        <v>106</v>
+      </c>
+      <c r="D95" t="s">
+        <v>106</v>
       </c>
     </row>
     <row r="96" spans="1:4">
       <c r="A96" t="s">
-        <v>103</v>
+        <v>107</v>
+      </c>
+      <c r="D96" t="s">
+        <v>107</v>
       </c>
     </row>
     <row r="97" spans="1:4">
       <c r="A97" t="s">
-        <v>104</v>
+        <v>108</v>
+      </c>
+      <c r="D97" t="s">
+        <v>108</v>
       </c>
     </row>
     <row r="98" spans="1:4">
       <c r="A98" t="s">
-        <v>105</v>
+        <v>109</v>
+      </c>
+      <c r="D98" t="s">
+        <v>109</v>
       </c>
     </row>
     <row r="99" spans="1:4">
       <c r="A99" t="s">
-        <v>106</v>
+        <v>110</v>
+      </c>
+      <c r="D99" t="s">
+        <v>110</v>
       </c>
     </row>
     <row r="100" spans="1:4">
       <c r="A100" t="s">
-        <v>107</v>
+        <v>111</v>
+      </c>
+      <c r="D100" t="s">
+        <v>111</v>
       </c>
     </row>
     <row r="101" spans="1:4">
       <c r="A101" t="s">
-        <v>108</v>
+        <v>112</v>
+      </c>
+      <c r="D101" t="s">
+        <v>112</v>
       </c>
     </row>
     <row r="102" spans="1:4">
       <c r="A102" t="s">
-        <v>109</v>
+        <v>113</v>
+      </c>
+      <c r="D102" t="s">
+        <v>113</v>
       </c>
     </row>
     <row r="103" spans="1:4">
       <c r="A103" t="s">
-        <v>110</v>
+        <v>114</v>
+      </c>
+      <c r="D103" t="s">
+        <v>114</v>
       </c>
     </row>
     <row r="104" spans="1:4">
       <c r="A104" t="s">
-        <v>111</v>
+        <v>115</v>
+      </c>
+      <c r="D104" t="s">
+        <v>115</v>
       </c>
     </row>
     <row r="105" spans="1:4">
       <c r="A105" t="s">
-        <v>112</v>
+        <v>116</v>
+      </c>
+      <c r="D105" t="s">
+        <v>116</v>
       </c>
     </row>
     <row r="106" spans="1:4">
       <c r="A106" t="s">
-        <v>113</v>
+        <v>117</v>
+      </c>
+      <c r="D106" t="s">
+        <v>117</v>
       </c>
     </row>
     <row r="107" spans="1:4">
       <c r="A107" t="s">
-        <v>114</v>
+        <v>118</v>
+      </c>
+      <c r="D107" t="s">
+        <v>118</v>
       </c>
     </row>
     <row r="108" spans="1:4">
       <c r="A108" t="s">
-        <v>115</v>
+        <v>119</v>
+      </c>
+      <c r="D108" t="s">
+        <v>119</v>
       </c>
     </row>
     <row r="109" spans="1:4">
       <c r="A109" t="s">
-        <v>116</v>
+        <v>120</v>
+      </c>
+      <c r="D109" t="s">
+        <v>120</v>
       </c>
     </row>
     <row r="110" spans="1:4">
       <c r="A110" t="s">
-        <v>117</v>
+        <v>121</v>
+      </c>
+      <c r="D110" t="s">
+        <v>121</v>
       </c>
     </row>
     <row r="111" spans="1:4">
       <c r="A111" t="s">
-        <v>118</v>
+        <v>122</v>
+      </c>
+      <c r="D111" t="s">
+        <v>122</v>
       </c>
     </row>
     <row r="112" spans="1:4">
       <c r="A112" t="s">
-        <v>119</v>
+        <v>123</v>
+      </c>
+      <c r="D112" t="s">
+        <v>123</v>
       </c>
     </row>
     <row r="113" spans="1:4">
       <c r="A113" t="s">
-        <v>120</v>
+        <v>124</v>
+      </c>
+      <c r="D113" t="s">
+        <v>124</v>
       </c>
     </row>
     <row r="114" spans="1:4">
       <c r="A114" t="s">
-        <v>121</v>
+        <v>125</v>
       </c>
       <c r="C114" t="s">
-        <v>122</v>
+        <v>126</v>
+      </c>
+      <c r="D114" t="s">
+        <v>125</v>
       </c>
     </row>
     <row r="115" spans="1:4">
       <c r="A115" t="s">
-        <v>123</v>
+        <v>127</v>
+      </c>
+      <c r="D115" t="s">
+        <v>127</v>
       </c>
     </row>
     <row r="116" spans="1:4">
       <c r="A116" t="s">
-        <v>124</v>
+        <v>128</v>
+      </c>
+      <c r="D116" t="s">
+        <v>128</v>
       </c>
     </row>
     <row r="117" spans="1:4">
       <c r="A117" t="s">
-        <v>125</v>
+        <v>129</v>
+      </c>
+      <c r="D117" t="s">
+        <v>129</v>
       </c>
     </row>
     <row r="118" spans="1:4">
       <c r="A118" t="s">
-        <v>126</v>
+        <v>130</v>
+      </c>
+      <c r="D118" t="s">
+        <v>130</v>
       </c>
     </row>
   </sheetData>

--- a/data/Enemies.xlsx
+++ b/data/Enemies.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="131">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="133">
   <si>
     <t>テスト用雑魚</t>
   </si>
@@ -26,87 +26,75 @@
     <t>2戦目</t>
   </si>
   <si>
-    <t>女将</t>
+    <t>\n[1]</t>
+  </si>
+  <si>
+    <t>VSユイネ</t>
+  </si>
+  <si>
+    <t>アイリン</t>
+  </si>
+  <si>
+    <t>胸揉み用</t>
+  </si>
+  <si>
+    <t>アルラウネ※</t>
+  </si>
+  <si>
+    <t>ハニービー</t>
+  </si>
+  <si>
+    <t>キエリ</t>
+  </si>
+  <si>
+    <t>アルプ</t>
+  </si>
+  <si>
+    <t>女盗賊</t>
+  </si>
+  <si>
+    <t>スラミー</t>
+  </si>
+  <si>
+    <t>マキサ</t>
+  </si>
+  <si>
+    <t>リリス</t>
+  </si>
+  <si>
+    <t>チュートリアルリリス</t>
+  </si>
+  <si>
+    <t>トルテとキルシュ</t>
+  </si>
+  <si>
+    <t>トルテ</t>
+  </si>
+  <si>
+    <t>チェイストルテ</t>
+  </si>
+  <si>
+    <t>ボストルテ</t>
+  </si>
+  <si>
+    <t>クラスタ</t>
+  </si>
+  <si>
+    <t>シープ</t>
+  </si>
+  <si>
+    <t>ノノ</t>
+  </si>
+  <si>
+    <t>ナース</t>
+  </si>
+  <si>
+    <t>リップス</t>
   </si>
   <si>
     <t>サキュバス</t>
   </si>
   <si>
-    <t>ibeyou</t>
-  </si>
-  <si>
-    <t>アルラウネ</t>
-  </si>
-  <si>
-    <t>アイリン</t>
-  </si>
-  <si>
-    <t>ユイネ</t>
-  </si>
-  <si>
-    <t>\n[1]</t>
-  </si>
-  <si>
-    <t>VSユイネ</t>
-  </si>
-  <si>
-    <t>胸揉み用</t>
-  </si>
-  <si>
-    <t>アルラウネ※</t>
-  </si>
-  <si>
-    <t>ハニービー</t>
-  </si>
-  <si>
-    <t>キエリ</t>
-  </si>
-  <si>
-    <t>アルプ</t>
-  </si>
-  <si>
-    <t>女盗賊</t>
-  </si>
-  <si>
-    <t>スラミー</t>
-  </si>
-  <si>
-    <t>マキサ</t>
-  </si>
-  <si>
-    <t>リリス</t>
-  </si>
-  <si>
-    <t>チュートリアルリリス</t>
-  </si>
-  <si>
-    <t>トルテとキルシュ</t>
-  </si>
-  <si>
-    <t>トルテ</t>
-  </si>
-  <si>
-    <t>チェイストルテ</t>
-  </si>
-  <si>
-    <t>ボストルテ</t>
-  </si>
-  <si>
-    <t>クラスタ</t>
-  </si>
-  <si>
-    <t>シープ</t>
-  </si>
-  <si>
-    <t>ノノ</t>
-  </si>
-  <si>
-    <t>ナース</t>
-  </si>
-  <si>
-    <t>リップス</t>
-  </si>
-  <si>
     <t>イベント用サキュバス</t>
   </si>
   <si>
@@ -200,18 +188,33 @@
     <t>リリス2戦目EX2</t>
   </si>
   <si>
-    <t>シルキー</t>
+    <t>とら</t>
+  </si>
+  <si>
+    <t>1回目</t>
   </si>
   <si>
     <t>EXエイミー</t>
   </si>
   <si>
+    <t>よわとら</t>
+  </si>
+  <si>
     <t>EXアリス</t>
   </si>
   <si>
+    <t>オーク</t>
+  </si>
+  <si>
     <t>リグレット</t>
   </si>
   <si>
+    <t>ウィッチラミア</t>
+  </si>
+  <si>
+    <t>マンティス</t>
+  </si>
+  <si>
     <t>リリーたち</t>
   </si>
   <si>
@@ -242,27 +245,30 @@
     <t>Meria</t>
   </si>
   <si>
-    <t>1回目</t>
-  </si>
-  <si>
     <t>2回目</t>
   </si>
   <si>
     <t>デカリリー</t>
   </si>
   <si>
+    <t>エンディング用</t>
+  </si>
+  <si>
+    <t>チョコレ</t>
+  </si>
+  <si>
+    <t>ベルーチェ</t>
+  </si>
+  <si>
+    <t>２</t>
+  </si>
+  <si>
     <t>～ARPG～</t>
   </si>
   <si>
     <t>NPC汎用</t>
   </si>
   <si>
-    <t>オーク</t>
-  </si>
-  <si>
-    <t>Orc</t>
-  </si>
-  <si>
     <t>オオコウモリ</t>
   </si>
   <si>
@@ -395,9 +401,6 @@
     <t>木材</t>
   </si>
   <si>
-    <t>Wood</t>
-  </si>
-  <si>
     <t>玄関扉</t>
   </si>
   <si>
@@ -408,6 +411,9 @@
   </si>
   <si>
     <t>硬くて丸い岩</t>
+  </si>
+  <si>
+    <t>ドア</t>
   </si>
 </sst>
 </file>
@@ -746,7 +752,7 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:D118"/>
+  <dimension ref="A1:B119"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
       <selection activeCell="A1" sqref="A1"/>
@@ -754,32 +760,47 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="2" spans="1:4">
+      <c r="B1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2">
       <c r="A2" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="3" spans="1:4">
+      <c r="B2" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
       <c r="A3" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="4" spans="1:4">
+      <c r="B3" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
       <c r="A4" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="5" spans="1:4">
+      <c r="B4" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
       <c r="A5" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="6" spans="1:4">
+      <c r="B5" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2">
       <c r="A6" t="s">
         <v>5</v>
       </c>
@@ -787,22 +808,31 @@
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:4">
+    <row r="7" spans="1:2">
       <c r="A7" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="8" spans="1:4">
+      <c r="B7" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2">
       <c r="A8" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="9" spans="1:4">
+      <c r="B8" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2">
       <c r="A9" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="10" spans="1:4">
+      <c r="B9" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2">
       <c r="A10" t="s">
         <v>9</v>
       </c>
@@ -810,715 +840,858 @@
         <v>9</v>
       </c>
     </row>
-    <row r="11" spans="1:4">
+    <row r="11" spans="1:2">
       <c r="A11" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="12" spans="1:4">
+      <c r="B11" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2">
       <c r="A12" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="13" spans="1:4">
+      <c r="B12" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2">
       <c r="A13" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="14" spans="1:4">
+      <c r="B13" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2">
       <c r="A14" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="15" spans="1:4">
+      <c r="B14" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2">
       <c r="A15" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="16" spans="1:4">
+      <c r="B15" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2">
       <c r="A16" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="17" spans="1:4">
+      <c r="B16" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2">
       <c r="A17" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="18" spans="1:4">
+      <c r="B17" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2">
       <c r="A18" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="19" spans="1:4">
+      <c r="B18" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2">
       <c r="A19" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="20" spans="1:4">
+      <c r="B19" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2">
       <c r="A20" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="21" spans="1:4">
+      <c r="B20" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2">
       <c r="A21" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="22" spans="1:4">
+      <c r="B21" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2">
       <c r="A22" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="23" spans="1:4">
+      <c r="B22" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2">
       <c r="A23" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="24" spans="1:4">
+      <c r="B23" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2">
       <c r="A24" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="25" spans="1:4">
+      <c r="B24" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2">
       <c r="A25" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="26" spans="1:4">
+      <c r="B25" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2">
       <c r="A26" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="27" spans="1:4">
+      <c r="B26" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2">
       <c r="A27" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="28" spans="1:4">
+      <c r="B27" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2">
       <c r="A28" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="29" spans="1:4">
+      <c r="B28" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2">
       <c r="A29" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="30" spans="1:4">
+      <c r="B29" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2">
       <c r="A30" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="31" spans="1:4">
+      <c r="B30" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2">
       <c r="A31" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="32" spans="1:4">
+      <c r="B31" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2">
       <c r="A32" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="33" spans="1:4">
+      <c r="B32" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2">
       <c r="A33" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="34" spans="1:4">
+      <c r="B33" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2">
       <c r="A34" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4">
+        <v>34</v>
+      </c>
+      <c r="B34" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2">
       <c r="A35" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="36" spans="1:4">
+        <v>35</v>
+      </c>
+      <c r="B35" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2">
       <c r="A36" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="37" spans="1:4">
+        <v>36</v>
+      </c>
+      <c r="B36" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2">
       <c r="A37" t="s">
-        <v>36</v>
-      </c>
-      <c r="C37" t="s">
         <v>37</v>
       </c>
-      <c r="D37" t="s">
+      <c r="B37" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="38" spans="1:4">
+    <row r="38" spans="1:2">
       <c r="A38" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="39" spans="1:4">
+      <c r="B38" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2">
       <c r="A39" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="40" spans="1:4">
+      <c r="B39" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2">
       <c r="A40" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="41" spans="1:4">
+      <c r="B40" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2">
       <c r="A41" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="42" spans="1:4">
+      <c r="B41" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2">
       <c r="A42" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="43" spans="1:4">
+      <c r="B42" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2">
       <c r="A43" t="s">
         <v>43</v>
       </c>
-    </row>
-    <row r="44" spans="1:4">
+      <c r="B43" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2">
       <c r="A44" t="s">
         <v>44</v>
       </c>
-    </row>
-    <row r="45" spans="1:4">
+      <c r="B44" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2">
       <c r="A45" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="46" spans="1:4">
+      <c r="B45" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2">
       <c r="A46" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="47" spans="1:4">
+      <c r="B46" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2">
       <c r="A47" t="s">
         <v>47</v>
       </c>
-    </row>
-    <row r="48" spans="1:4">
+      <c r="B47" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2">
       <c r="A48" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="49" spans="1:4">
+        <v>49</v>
+      </c>
+      <c r="B48" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2">
       <c r="A49" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="50" spans="1:4">
+        <v>50</v>
+      </c>
+      <c r="B49" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2">
       <c r="A50" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="51" spans="1:4">
+        <v>51</v>
+      </c>
+      <c r="B50" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2">
       <c r="A51" t="s">
-        <v>51</v>
-      </c>
-      <c r="D51" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="52" spans="1:4">
+        <v>53</v>
+      </c>
+      <c r="B51" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2">
       <c r="A52" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="53" spans="1:4">
+        <v>54</v>
+      </c>
+      <c r="B52" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2">
       <c r="A53" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="54" spans="1:4">
+        <v>55</v>
+      </c>
+      <c r="B53" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2">
       <c r="A54" t="s">
-        <v>55</v>
-      </c>
-      <c r="D54" t="s">
         <v>56</v>
       </c>
-    </row>
-    <row r="55" spans="1:4">
+      <c r="B54" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2">
       <c r="A55" t="s">
         <v>57</v>
       </c>
-    </row>
-    <row r="56" spans="1:4">
+      <c r="B55" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="56" spans="1:2">
       <c r="A56" t="s">
         <v>58</v>
       </c>
-    </row>
-    <row r="57" spans="1:4">
+      <c r="B56" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="57" spans="1:2">
       <c r="A57" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="58" spans="1:4">
+        <v>60</v>
+      </c>
+      <c r="B57" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="58" spans="1:2">
       <c r="A58" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="59" spans="1:4">
+        <v>62</v>
+      </c>
+      <c r="B58" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="59" spans="1:2">
       <c r="A59" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="60" spans="1:4">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="60" spans="1:2">
       <c r="A60" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="61" spans="1:4">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="61" spans="1:2">
       <c r="A61" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="62" spans="1:4">
+        <v>66</v>
+      </c>
+      <c r="B61" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="62" spans="1:2">
       <c r="A62" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="63" spans="1:4">
+        <v>68</v>
+      </c>
+      <c r="B62" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="63" spans="1:2">
       <c r="A63" t="s">
-        <v>65</v>
-      </c>
-      <c r="D63" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="64" spans="1:4">
+        <v>70</v>
+      </c>
+      <c r="B63" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="64" spans="1:2">
       <c r="A64" t="s">
-        <v>67</v>
-      </c>
-      <c r="D64" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="65" spans="1:4">
+        <v>72</v>
+      </c>
+      <c r="B64" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="65" spans="1:2">
       <c r="A65" t="s">
-        <v>69</v>
-      </c>
-      <c r="C65" t="s">
-        <v>70</v>
-      </c>
-      <c r="D65" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="66" spans="1:4">
+        <v>74</v>
+      </c>
+      <c r="B65" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="66" spans="1:2">
       <c r="A66" t="s">
-        <v>71</v>
-      </c>
-      <c r="D66" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="67" spans="1:4">
+        <v>76</v>
+      </c>
+      <c r="B66" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="67" spans="1:2">
       <c r="A67" t="s">
-        <v>73</v>
-      </c>
-      <c r="D67" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="68" spans="1:4">
+        <v>77</v>
+      </c>
+      <c r="B67" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="68" spans="1:2">
       <c r="A68" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="69" spans="1:4">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="69" spans="1:2">
       <c r="A69" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="70" spans="1:4">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="70" spans="1:2">
       <c r="A70" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="71" spans="1:4">
+        <v>80</v>
+      </c>
+      <c r="B70" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="71" spans="1:2">
       <c r="A71" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="72" spans="1:4">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="72" spans="1:2">
       <c r="A72" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="73" spans="1:4">
+        <v>82</v>
+      </c>
+      <c r="B72" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="73" spans="1:2">
       <c r="A73" t="s">
-        <v>80</v>
-      </c>
-      <c r="D73" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="74" spans="1:4">
+        <v>83</v>
+      </c>
+      <c r="B73" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="74" spans="1:2">
       <c r="A74" t="s">
-        <v>82</v>
-      </c>
-      <c r="D74" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="75" spans="1:4">
+        <v>84</v>
+      </c>
+      <c r="B74" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="75" spans="1:2">
       <c r="A75" t="s">
-        <v>83</v>
-      </c>
-      <c r="D75" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="76" spans="1:4">
+        <v>85</v>
+      </c>
+      <c r="B75" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="76" spans="1:2">
       <c r="A76" t="s">
-        <v>84</v>
-      </c>
-      <c r="D76" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="77" spans="1:4">
+        <v>86</v>
+      </c>
+      <c r="B76" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="77" spans="1:2">
       <c r="A77" t="s">
-        <v>85</v>
-      </c>
-      <c r="D77" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="78" spans="1:4">
+        <v>87</v>
+      </c>
+      <c r="B77" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="78" spans="1:2">
       <c r="A78" t="s">
-        <v>87</v>
-      </c>
-      <c r="D78" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="79" spans="1:4">
+        <v>89</v>
+      </c>
+      <c r="B78" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="79" spans="1:2">
       <c r="A79" t="s">
-        <v>89</v>
-      </c>
-      <c r="D79" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="80" spans="1:4">
+        <v>91</v>
+      </c>
+      <c r="B79" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="80" spans="1:2">
       <c r="A80" t="s">
-        <v>90</v>
-      </c>
-      <c r="D80" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="81" spans="1:4">
+        <v>92</v>
+      </c>
+      <c r="B80" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="81" spans="1:2">
       <c r="A81" t="s">
-        <v>91</v>
-      </c>
-      <c r="D81" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="82" spans="1:4">
+        <v>93</v>
+      </c>
+      <c r="B81" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="82" spans="1:2">
       <c r="A82" t="s">
-        <v>92</v>
-      </c>
-      <c r="D82" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="83" spans="1:4">
+        <v>94</v>
+      </c>
+      <c r="B82" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="83" spans="1:2">
       <c r="A83" t="s">
-        <v>93</v>
-      </c>
-      <c r="D83" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="84" spans="1:4">
+        <v>95</v>
+      </c>
+      <c r="B83" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="84" spans="1:2">
       <c r="A84" t="s">
-        <v>95</v>
-      </c>
-      <c r="D84" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="85" spans="1:4">
+        <v>97</v>
+      </c>
+      <c r="B84" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="85" spans="1:2">
       <c r="A85" t="s">
-        <v>96</v>
-      </c>
-      <c r="D85" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="86" spans="1:4">
+        <v>98</v>
+      </c>
+      <c r="B85" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="86" spans="1:2">
       <c r="A86" t="s">
-        <v>97</v>
-      </c>
-      <c r="D86" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="87" spans="1:4">
+        <v>99</v>
+      </c>
+      <c r="B86" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="87" spans="1:2">
       <c r="A87" t="s">
-        <v>98</v>
-      </c>
-      <c r="D87" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="88" spans="1:4">
+        <v>100</v>
+      </c>
+      <c r="B87" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="88" spans="1:2">
       <c r="A88" t="s">
-        <v>99</v>
-      </c>
-      <c r="D88" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="89" spans="1:4">
+        <v>101</v>
+      </c>
+      <c r="B88" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="89" spans="1:2">
       <c r="A89" t="s">
-        <v>100</v>
-      </c>
-      <c r="D89" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="90" spans="1:4">
+        <v>102</v>
+      </c>
+      <c r="B89" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="90" spans="1:2">
       <c r="A90" t="s">
-        <v>101</v>
-      </c>
-      <c r="D90" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="91" spans="1:4">
+        <v>103</v>
+      </c>
+      <c r="B90" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="91" spans="1:2">
       <c r="A91" t="s">
-        <v>102</v>
-      </c>
-      <c r="D91" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="92" spans="1:4">
+        <v>104</v>
+      </c>
+      <c r="B91" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="92" spans="1:2">
       <c r="A92" t="s">
-        <v>103</v>
-      </c>
-      <c r="D92" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="93" spans="1:4">
+        <v>105</v>
+      </c>
+      <c r="B92" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="93" spans="1:2">
       <c r="A93" t="s">
-        <v>104</v>
-      </c>
-      <c r="D93" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="94" spans="1:4">
+        <v>106</v>
+      </c>
+      <c r="B93" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="94" spans="1:2">
       <c r="A94" t="s">
-        <v>105</v>
-      </c>
-      <c r="D94" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="95" spans="1:4">
+        <v>107</v>
+      </c>
+      <c r="B94" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="95" spans="1:2">
       <c r="A95" t="s">
-        <v>106</v>
-      </c>
-      <c r="D95" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="96" spans="1:4">
+        <v>108</v>
+      </c>
+      <c r="B95" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="96" spans="1:2">
       <c r="A96" t="s">
-        <v>107</v>
-      </c>
-      <c r="D96" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="97" spans="1:4">
+        <v>109</v>
+      </c>
+      <c r="B96" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="97" spans="1:2">
       <c r="A97" t="s">
-        <v>108</v>
-      </c>
-      <c r="D97" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="98" spans="1:4">
+        <v>110</v>
+      </c>
+      <c r="B97" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="98" spans="1:2">
       <c r="A98" t="s">
-        <v>109</v>
-      </c>
-      <c r="D98" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="99" spans="1:4">
+        <v>111</v>
+      </c>
+      <c r="B98" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="99" spans="1:2">
       <c r="A99" t="s">
-        <v>110</v>
-      </c>
-      <c r="D99" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="100" spans="1:4">
+        <v>112</v>
+      </c>
+      <c r="B99" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="100" spans="1:2">
       <c r="A100" t="s">
-        <v>111</v>
-      </c>
-      <c r="D100" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="101" spans="1:4">
+        <v>113</v>
+      </c>
+      <c r="B100" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="101" spans="1:2">
       <c r="A101" t="s">
-        <v>112</v>
-      </c>
-      <c r="D101" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="102" spans="1:4">
+        <v>114</v>
+      </c>
+      <c r="B101" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="102" spans="1:2">
       <c r="A102" t="s">
-        <v>113</v>
-      </c>
-      <c r="D102" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="103" spans="1:4">
+        <v>115</v>
+      </c>
+      <c r="B102" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="103" spans="1:2">
       <c r="A103" t="s">
-        <v>114</v>
-      </c>
-      <c r="D103" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="104" spans="1:4">
+        <v>116</v>
+      </c>
+      <c r="B103" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="104" spans="1:2">
       <c r="A104" t="s">
-        <v>115</v>
-      </c>
-      <c r="D104" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="105" spans="1:4">
+        <v>117</v>
+      </c>
+      <c r="B104" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="105" spans="1:2">
       <c r="A105" t="s">
-        <v>116</v>
-      </c>
-      <c r="D105" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="106" spans="1:4">
+        <v>118</v>
+      </c>
+      <c r="B105" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="106" spans="1:2">
       <c r="A106" t="s">
-        <v>117</v>
-      </c>
-      <c r="D106" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="107" spans="1:4">
+        <v>119</v>
+      </c>
+      <c r="B106" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="107" spans="1:2">
       <c r="A107" t="s">
-        <v>118</v>
-      </c>
-      <c r="D107" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="108" spans="1:4">
+        <v>120</v>
+      </c>
+      <c r="B107" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="108" spans="1:2">
       <c r="A108" t="s">
-        <v>119</v>
-      </c>
-      <c r="D108" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="109" spans="1:4">
+        <v>121</v>
+      </c>
+      <c r="B108" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="109" spans="1:2">
       <c r="A109" t="s">
-        <v>120</v>
-      </c>
-      <c r="D109" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="110" spans="1:4">
+        <v>122</v>
+      </c>
+      <c r="B109" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="110" spans="1:2">
       <c r="A110" t="s">
-        <v>121</v>
-      </c>
-      <c r="D110" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="111" spans="1:4">
+        <v>123</v>
+      </c>
+      <c r="B110" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="111" spans="1:2">
       <c r="A111" t="s">
-        <v>122</v>
-      </c>
-      <c r="D111" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="112" spans="1:4">
+        <v>124</v>
+      </c>
+      <c r="B111" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="112" spans="1:2">
       <c r="A112" t="s">
-        <v>123</v>
-      </c>
-      <c r="D112" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="113" spans="1:4">
+        <v>125</v>
+      </c>
+      <c r="B112" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="113" spans="1:2">
       <c r="A113" t="s">
-        <v>124</v>
-      </c>
-      <c r="D113" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="114" spans="1:4">
+        <v>126</v>
+      </c>
+      <c r="B113" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="114" spans="1:2">
       <c r="A114" t="s">
-        <v>125</v>
-      </c>
-      <c r="C114" t="s">
-        <v>126</v>
-      </c>
-      <c r="D114" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="115" spans="1:4">
+        <v>127</v>
+      </c>
+      <c r="B114" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="115" spans="1:2">
       <c r="A115" t="s">
-        <v>127</v>
-      </c>
-      <c r="D115" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="116" spans="1:4">
+        <v>128</v>
+      </c>
+      <c r="B115" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="116" spans="1:2">
       <c r="A116" t="s">
-        <v>128</v>
-      </c>
-      <c r="D116" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="117" spans="1:4">
+        <v>129</v>
+      </c>
+      <c r="B116" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="117" spans="1:2">
       <c r="A117" t="s">
-        <v>129</v>
-      </c>
-      <c r="D117" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="118" spans="1:4">
+        <v>130</v>
+      </c>
+      <c r="B117" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="118" spans="1:2">
       <c r="A118" t="s">
-        <v>130</v>
-      </c>
-      <c r="D118" t="s">
-        <v>130</v>
+        <v>131</v>
+      </c>
+      <c r="B118" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="119" spans="1:2">
+      <c r="A119" t="s">
+        <v>132</v>
       </c>
     </row>
   </sheetData>

--- a/data/Enemies.xlsx
+++ b/data/Enemies.xlsx
@@ -1,21 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xml:space="preserve">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="25601"/>
   <workbookPr codeName="ThisWorkbook"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\alexm\Documents\GitHub\Captured-Als-To-Romeria-Translation\data\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CD438FCF-27E2-4BF8-837E-2072611EBD33}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="true" firstSheet="0" minimized="false" showHorizontalScroll="true" showSheetTabs="true" showVerticalScroll="true" tabRatio="600" visibility="visible"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Worksheet" sheetId="1" r:id="rId4"/>
+    <sheet name="Worksheet" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames/>
-  <calcPr calcId="999999" calcMode="auto" calcCompleted="1" fullCalcOnLoad="0" forceFullCalc="0"/>
+  <calcPr calcId="181029"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="133">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="238" uniqueCount="139">
   <si>
     <t>テスト用雑魚</t>
   </si>
@@ -414,22 +419,41 @@
   </si>
   <si>
     <t>ドア</t>
+  </si>
+  <si>
+    <t>Orc</t>
+  </si>
+  <si>
+    <t>Tiger</t>
+  </si>
+  <si>
+    <t>Witch Lamia</t>
+  </si>
+  <si>
+    <t>Mantis</t>
+  </si>
+  <si>
+    <t>Chocolat</t>
+  </si>
+  <si>
+    <t>Velvet</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xml:space="preserve">
-  <numFmts count="0"/>
-  <fonts count="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
-      <b val="0"/>
-      <i val="0"/>
-      <strike val="0"/>
-      <u val="none"/>
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -437,28 +461,38 @@
       <patternFill patternType="none"/>
     </fill>
     <fill>
-      <patternFill patternType="gray125">
-        <fgColor rgb="FFFFFFFF"/>
-        <bgColor rgb="FF000000"/>
-      </patternFill>
+      <patternFill patternType="gray125"/>
     </fill>
   </fills>
   <borders count="1">
-    <border/>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
-    <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="0" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
+  <cellXfs count="2">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotTableStyle1"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -748,19 +782,20 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xml:space="preserve" mc:Ignorable="x14ac">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-  </sheetPr>
-  <dimension ref="A1:B119"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:C119"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
-      <selection activeCell="A1" sqref="A1"/>
+    <sheetView tabSelected="1" topLeftCell="A52" workbookViewId="0">
+      <selection activeCell="A70" sqref="A70"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="45.7109375" customWidth="1"/>
+    <col min="2" max="2" width="66" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -768,7 +803,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:2">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -776,7 +811,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:2">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>2</v>
       </c>
@@ -784,7 +819,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:2">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>3</v>
       </c>
@@ -792,7 +827,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:2">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>4</v>
       </c>
@@ -800,7 +835,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:2">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>5</v>
       </c>
@@ -808,7 +843,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:2">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>6</v>
       </c>
@@ -816,7 +851,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="8" spans="1:2">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>7</v>
       </c>
@@ -824,7 +859,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="9" spans="1:2">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>8</v>
       </c>
@@ -832,7 +867,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="10" spans="1:2">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>9</v>
       </c>
@@ -840,7 +875,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="11" spans="1:2">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>10</v>
       </c>
@@ -848,7 +883,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="12" spans="1:2">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>11</v>
       </c>
@@ -856,7 +891,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="13" spans="1:2">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>12</v>
       </c>
@@ -864,7 +899,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="14" spans="1:2">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>13</v>
       </c>
@@ -872,7 +907,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="15" spans="1:2">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>14</v>
       </c>
@@ -880,7 +915,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="16" spans="1:2">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>15</v>
       </c>
@@ -888,7 +923,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="17" spans="1:2">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>16</v>
       </c>
@@ -896,7 +931,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="18" spans="1:2">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>17</v>
       </c>
@@ -904,7 +939,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="19" spans="1:2">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>18</v>
       </c>
@@ -912,7 +947,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="20" spans="1:2">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>19</v>
       </c>
@@ -920,7 +955,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="21" spans="1:2">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>20</v>
       </c>
@@ -928,7 +963,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="22" spans="1:2">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>21</v>
       </c>
@@ -936,7 +971,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="23" spans="1:2">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>22</v>
       </c>
@@ -944,7 +979,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="24" spans="1:2">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>23</v>
       </c>
@@ -952,7 +987,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="25" spans="1:2">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>24</v>
       </c>
@@ -960,7 +995,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="26" spans="1:2">
+    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>25</v>
       </c>
@@ -968,7 +1003,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="27" spans="1:2">
+    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>26</v>
       </c>
@@ -976,7 +1011,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="28" spans="1:2">
+    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>27</v>
       </c>
@@ -984,7 +1019,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="29" spans="1:2">
+    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>28</v>
       </c>
@@ -992,7 +1027,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="30" spans="1:2">
+    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>29</v>
       </c>
@@ -1000,7 +1035,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="31" spans="1:2">
+    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>30</v>
       </c>
@@ -1008,7 +1043,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="32" spans="1:2">
+    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>31</v>
       </c>
@@ -1016,7 +1051,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="33" spans="1:2">
+    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>32</v>
       </c>
@@ -1024,7 +1059,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="34" spans="1:2">
+    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>34</v>
       </c>
@@ -1032,7 +1067,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="35" spans="1:2">
+    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>35</v>
       </c>
@@ -1040,7 +1075,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="36" spans="1:2">
+    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>36</v>
       </c>
@@ -1048,7 +1083,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="37" spans="1:2">
+    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>37</v>
       </c>
@@ -1056,7 +1091,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="38" spans="1:2">
+    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>38</v>
       </c>
@@ -1064,7 +1099,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="39" spans="1:2">
+    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>39</v>
       </c>
@@ -1072,7 +1107,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="40" spans="1:2">
+    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>40</v>
       </c>
@@ -1080,7 +1115,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="41" spans="1:2">
+    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>41</v>
       </c>
@@ -1088,7 +1123,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="42" spans="1:2">
+    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>42</v>
       </c>
@@ -1096,7 +1131,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="43" spans="1:2">
+    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>43</v>
       </c>
@@ -1104,7 +1139,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="44" spans="1:2">
+    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>44</v>
       </c>
@@ -1112,7 +1147,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="45" spans="1:2">
+    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>45</v>
       </c>
@@ -1120,7 +1155,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="46" spans="1:2">
+    <row r="46" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>46</v>
       </c>
@@ -1128,7 +1163,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="47" spans="1:2">
+    <row r="47" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>47</v>
       </c>
@@ -1136,7 +1171,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="48" spans="1:2">
+    <row r="48" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>49</v>
       </c>
@@ -1144,7 +1179,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="49" spans="1:2">
+    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>50</v>
       </c>
@@ -1152,7 +1187,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="50" spans="1:2">
+    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>51</v>
       </c>
@@ -1160,7 +1195,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="51" spans="1:2">
+    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>53</v>
       </c>
@@ -1168,7 +1203,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="52" spans="1:2">
+    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>54</v>
       </c>
@@ -1176,7 +1211,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="53" spans="1:2">
+    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>55</v>
       </c>
@@ -1184,7 +1219,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="54" spans="1:2">
+    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>56</v>
       </c>
@@ -1192,15 +1227,18 @@
         <v>56</v>
       </c>
     </row>
-    <row r="55" spans="1:2">
+    <row r="55" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>57</v>
       </c>
-      <c r="B55" t="s">
+      <c r="B55" s="1" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="56" spans="1:2">
+      <c r="C55" s="1" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>58</v>
       </c>
@@ -1208,7 +1246,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="57" spans="1:2">
+    <row r="57" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>60</v>
       </c>
@@ -1216,25 +1254,34 @@
         <v>61</v>
       </c>
     </row>
-    <row r="58" spans="1:2">
+    <row r="58" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
         <v>62</v>
       </c>
       <c r="B58" t="s">
         <v>63</v>
       </c>
-    </row>
-    <row r="59" spans="1:2">
+      <c r="C58" s="1" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
         <v>64</v>
       </c>
-    </row>
-    <row r="60" spans="1:2">
+      <c r="C59" s="1" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="60" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
         <v>65</v>
       </c>
-    </row>
-    <row r="61" spans="1:2">
+      <c r="C60" s="1" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="61" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
         <v>66</v>
       </c>
@@ -1242,7 +1289,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="62" spans="1:2">
+    <row r="62" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
         <v>68</v>
       </c>
@@ -1250,7 +1297,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="63" spans="1:2">
+    <row r="63" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
         <v>70</v>
       </c>
@@ -1258,7 +1305,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="64" spans="1:2">
+    <row r="64" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
         <v>72</v>
       </c>
@@ -1266,7 +1313,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="65" spans="1:2">
+    <row r="65" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
         <v>74</v>
       </c>
@@ -1274,7 +1321,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="66" spans="1:2">
+    <row r="66" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
         <v>76</v>
       </c>
@@ -1282,7 +1329,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="67" spans="1:2">
+    <row r="67" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
         <v>77</v>
       </c>
@@ -1290,30 +1337,36 @@
         <v>77</v>
       </c>
     </row>
-    <row r="68" spans="1:2">
+    <row r="68" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="69" spans="1:2">
+    <row r="69" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
         <v>79</v>
       </c>
-    </row>
-    <row r="70" spans="1:2">
+      <c r="C69" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="70" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
         <v>80</v>
       </c>
       <c r="B70" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="71" spans="1:2">
+      <c r="C70" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="71" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="72" spans="1:2">
+    <row r="72" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
         <v>82</v>
       </c>
@@ -1321,7 +1374,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="73" spans="1:2">
+    <row r="73" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
         <v>83</v>
       </c>
@@ -1329,7 +1382,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="74" spans="1:2">
+    <row r="74" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
         <v>84</v>
       </c>
@@ -1337,7 +1390,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="75" spans="1:2">
+    <row r="75" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
         <v>85</v>
       </c>
@@ -1345,7 +1398,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="76" spans="1:2">
+    <row r="76" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
         <v>86</v>
       </c>
@@ -1353,7 +1406,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="77" spans="1:2">
+    <row r="77" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
         <v>87</v>
       </c>
@@ -1361,7 +1414,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="78" spans="1:2">
+    <row r="78" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
         <v>89</v>
       </c>
@@ -1369,7 +1422,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="79" spans="1:2">
+    <row r="79" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
         <v>91</v>
       </c>
@@ -1377,7 +1430,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="80" spans="1:2">
+    <row r="80" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
         <v>92</v>
       </c>
@@ -1385,7 +1438,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="81" spans="1:2">
+    <row r="81" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
         <v>93</v>
       </c>
@@ -1393,7 +1446,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="82" spans="1:2">
+    <row r="82" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
         <v>94</v>
       </c>
@@ -1401,7 +1454,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="83" spans="1:2">
+    <row r="83" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
         <v>95</v>
       </c>
@@ -1409,7 +1462,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="84" spans="1:2">
+    <row r="84" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
         <v>97</v>
       </c>
@@ -1417,7 +1470,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="85" spans="1:2">
+    <row r="85" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
         <v>98</v>
       </c>
@@ -1425,7 +1478,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="86" spans="1:2">
+    <row r="86" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
         <v>99</v>
       </c>
@@ -1433,7 +1486,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="87" spans="1:2">
+    <row r="87" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
         <v>100</v>
       </c>
@@ -1441,7 +1494,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="88" spans="1:2">
+    <row r="88" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
         <v>101</v>
       </c>
@@ -1449,7 +1502,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="89" spans="1:2">
+    <row r="89" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
         <v>102</v>
       </c>
@@ -1457,7 +1510,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="90" spans="1:2">
+    <row r="90" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
         <v>103</v>
       </c>
@@ -1465,7 +1518,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="91" spans="1:2">
+    <row r="91" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
         <v>104</v>
       </c>
@@ -1473,7 +1526,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="92" spans="1:2">
+    <row r="92" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
         <v>105</v>
       </c>
@@ -1481,7 +1534,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="93" spans="1:2">
+    <row r="93" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
         <v>106</v>
       </c>
@@ -1489,7 +1542,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="94" spans="1:2">
+    <row r="94" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
         <v>107</v>
       </c>
@@ -1497,7 +1550,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="95" spans="1:2">
+    <row r="95" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
         <v>108</v>
       </c>
@@ -1505,7 +1558,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="96" spans="1:2">
+    <row r="96" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
         <v>109</v>
       </c>
@@ -1513,7 +1566,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="97" spans="1:2">
+    <row r="97" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
         <v>110</v>
       </c>
@@ -1521,7 +1574,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="98" spans="1:2">
+    <row r="98" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
         <v>111</v>
       </c>
@@ -1529,7 +1582,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="99" spans="1:2">
+    <row r="99" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
         <v>112</v>
       </c>
@@ -1537,7 +1590,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="100" spans="1:2">
+    <row r="100" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
         <v>113</v>
       </c>
@@ -1545,7 +1598,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="101" spans="1:2">
+    <row r="101" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
         <v>114</v>
       </c>
@@ -1553,7 +1606,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="102" spans="1:2">
+    <row r="102" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
         <v>115</v>
       </c>
@@ -1561,7 +1614,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="103" spans="1:2">
+    <row r="103" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
         <v>116</v>
       </c>
@@ -1569,7 +1622,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="104" spans="1:2">
+    <row r="104" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
         <v>117</v>
       </c>
@@ -1577,7 +1630,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="105" spans="1:2">
+    <row r="105" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
         <v>118</v>
       </c>
@@ -1585,7 +1638,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="106" spans="1:2">
+    <row r="106" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
         <v>119</v>
       </c>
@@ -1593,7 +1646,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="107" spans="1:2">
+    <row r="107" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
         <v>120</v>
       </c>
@@ -1601,7 +1654,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="108" spans="1:2">
+    <row r="108" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
         <v>121</v>
       </c>
@@ -1609,7 +1662,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="109" spans="1:2">
+    <row r="109" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
         <v>122</v>
       </c>
@@ -1617,7 +1670,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="110" spans="1:2">
+    <row r="110" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
         <v>123</v>
       </c>
@@ -1625,7 +1678,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="111" spans="1:2">
+    <row r="111" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
         <v>124</v>
       </c>
@@ -1633,7 +1686,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="112" spans="1:2">
+    <row r="112" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
         <v>125</v>
       </c>
@@ -1641,7 +1694,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="113" spans="1:2">
+    <row r="113" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
         <v>126</v>
       </c>
@@ -1649,7 +1702,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="114" spans="1:2">
+    <row r="114" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
         <v>127</v>
       </c>
@@ -1657,7 +1710,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="115" spans="1:2">
+    <row r="115" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A115" t="s">
         <v>128</v>
       </c>
@@ -1665,7 +1718,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="116" spans="1:2">
+    <row r="116" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A116" t="s">
         <v>129</v>
       </c>
@@ -1673,7 +1726,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="117" spans="1:2">
+    <row r="117" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A117" t="s">
         <v>130</v>
       </c>
@@ -1681,7 +1734,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="118" spans="1:2">
+    <row r="118" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A118" t="s">
         <v>131</v>
       </c>
@@ -1689,23 +1742,13 @@
         <v>131</v>
       </c>
     </row>
-    <row r="119" spans="1:2">
+    <row r="119" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A119" t="s">
         <v>132</v>
       </c>
     </row>
   </sheetData>
-  <sheetProtection sheet="false" objects="false" scenarios="false" formatCells="false" formatColumns="false" formatRows="false" insertColumns="false" insertRows="false" insertHyperlinks="false" deleteColumns="false" deleteRows="false" selectLockedCells="false" sort="false" autoFilter="false" pivotTables="false" selectUnlockedCells="false"/>
-  <printOptions gridLines="false" gridLinesSet="true"/>
+  <sheetProtection formatCells="0" formatColumns="0" formatRows="0" insertColumns="0" insertRows="0" insertHyperlinks="0" deleteColumns="0" deleteRows="0" sort="0" autoFilter="0" pivotTables="0"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="1" orientation="default" scale="100" fitToHeight="1" fitToWidth="1"/>
-  <headerFooter differentOddEven="false" differentFirst="false" scaleWithDoc="true" alignWithMargins="true">
-    <oddHeader/>
-    <oddFooter/>
-    <evenHeader/>
-    <evenFooter/>
-    <firstHeader/>
-    <firstFooter/>
-  </headerFooter>
 </worksheet>
 </file>